--- a/参数影响.xlsx
+++ b/参数影响.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>batch_size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,9 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列6</t>
-  </si>
-  <si>
     <t>epochs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,6 +55,22 @@
   </si>
   <si>
     <t>MAPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTX1060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTX1060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTX1060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -65,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +103,52 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,12 +160,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -126,11 +187,56 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -149,36 +255,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -193,18 +269,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I9"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="epochs" dataDxfId="10"/>
-    <tableColumn id="2" name="time_steps" dataDxfId="9"/>
-    <tableColumn id="3" name="input_size" dataDxfId="8"/>
-    <tableColumn id="4" name="output_size" dataDxfId="7"/>
-    <tableColumn id="5" name="batch_size" dataDxfId="6"/>
-    <tableColumn id="6" name="列6" dataDxfId="5"/>
-    <tableColumn id="7" name="MAE" dataDxfId="4"/>
-    <tableColumn id="8" name="RMSE" dataDxfId="3"/>
-    <tableColumn id="9" name="MAPE" dataDxfId="2"/>
+    <tableColumn id="1" name="epochs" dataDxfId="8"/>
+    <tableColumn id="2" name="time_steps" dataDxfId="7"/>
+    <tableColumn id="3" name="input_size" dataDxfId="6"/>
+    <tableColumn id="4" name="output_size" dataDxfId="5"/>
+    <tableColumn id="5" name="batch_size" dataDxfId="4"/>
+    <tableColumn id="6" name="GPU" dataDxfId="3"/>
+    <tableColumn id="7" name="MAE" dataDxfId="2"/>
+    <tableColumn id="8" name="RMSE" dataDxfId="1"/>
+    <tableColumn id="9" name="MAPE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -476,46 +552,48 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -534,15 +612,17 @@
       <c r="E2" s="2">
         <v>64</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G2" s="2">
-        <v>28.22</v>
+        <v>27.22</v>
       </c>
       <c r="H2" s="2">
         <v>40.380000000000003</v>
       </c>
       <c r="I2" s="3">
-        <v>0.12959999999999999</v>
+        <v>0.13539999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -561,38 +641,76 @@
       <c r="E3" s="2">
         <v>64</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="G3" s="2">
-        <v>26.37</v>
+        <v>27.44</v>
       </c>
       <c r="H3" s="2">
-        <v>37.83</v>
+        <v>39.130000000000003</v>
       </c>
       <c r="I3" s="3">
-        <v>0.1336</v>
+        <v>0.13819999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="A4" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2">
+        <v>64</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>27.38</v>
+      </c>
+      <c r="H4" s="2">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.1343</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="2">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2">
+        <v>64</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7">
+        <v>26.26</v>
+      </c>
+      <c r="H5" s="7">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.1211</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>

--- a/参数影响.xlsx
+++ b/参数影响.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>batch_size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,16 @@
   <si>
     <t>GPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTX1061</t>
+  </si>
+  <si>
+    <t>GTX1062</t>
   </si>
 </sst>
 </file>
@@ -206,7 +216,10 @@
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -269,18 +282,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I9"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="epochs" dataDxfId="8"/>
-    <tableColumn id="2" name="time_steps" dataDxfId="7"/>
-    <tableColumn id="3" name="input_size" dataDxfId="6"/>
-    <tableColumn id="4" name="output_size" dataDxfId="5"/>
-    <tableColumn id="5" name="batch_size" dataDxfId="4"/>
-    <tableColumn id="6" name="GPU" dataDxfId="3"/>
-    <tableColumn id="7" name="MAE" dataDxfId="2"/>
-    <tableColumn id="8" name="RMSE" dataDxfId="1"/>
-    <tableColumn id="9" name="MAPE" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J9"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="epochs" dataDxfId="9"/>
+    <tableColumn id="2" name="time_steps" dataDxfId="8"/>
+    <tableColumn id="3" name="input_size" dataDxfId="7"/>
+    <tableColumn id="4" name="output_size" dataDxfId="6"/>
+    <tableColumn id="5" name="batch_size" dataDxfId="5"/>
+    <tableColumn id="11" name="drop_out" dataDxfId="0"/>
+    <tableColumn id="6" name="GPU" dataDxfId="4"/>
+    <tableColumn id="7" name="MAE" dataDxfId="3"/>
+    <tableColumn id="8" name="RMSE" dataDxfId="2"/>
+    <tableColumn id="9" name="MAPE" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -549,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -561,13 +575,13 @@
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="5" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -584,19 +598,22 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>10</v>
       </c>
@@ -612,20 +629,23 @@
       <c r="E2" s="2">
         <v>64</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>27.22</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>40.380000000000003</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>0.13539999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>20</v>
       </c>
@@ -641,20 +661,23 @@
       <c r="E3" s="2">
         <v>64</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>27.44</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>39.130000000000003</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>0.13819999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>30</v>
       </c>
@@ -670,20 +693,23 @@
       <c r="E4" s="2">
         <v>64</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>27.38</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>37.549999999999997</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>0.1343</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>40</v>
       </c>
@@ -699,53 +725,113 @@
       <c r="E5" s="2">
         <v>64</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>26.26</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <v>36.950000000000003</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>0.1211</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2">
+        <v>64</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2">
+        <v>25.86</v>
+      </c>
+      <c r="I6" s="2">
+        <v>36.97</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.124</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2">
+        <v>64</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2">
+        <v>64</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2">
+        <v>24.29</v>
+      </c>
+      <c r="I8" s="2">
+        <v>35.020000000000003</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.1071</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -755,6 +841,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/参数影响.xlsx
+++ b/参数影响.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>batch_size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>GTX1062</t>
+  </si>
+  <si>
+    <t>model_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lstm_epochs10_dropout0.3_v1.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lstm_epochs30_dropout0.3_v1.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -216,7 +228,10 @@
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -282,19 +297,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J9"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="epochs" dataDxfId="9"/>
-    <tableColumn id="2" name="time_steps" dataDxfId="8"/>
-    <tableColumn id="3" name="input_size" dataDxfId="7"/>
-    <tableColumn id="4" name="output_size" dataDxfId="6"/>
-    <tableColumn id="5" name="batch_size" dataDxfId="5"/>
-    <tableColumn id="11" name="drop_out" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K9"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="epochs" dataDxfId="10"/>
+    <tableColumn id="2" name="time_steps" dataDxfId="9"/>
+    <tableColumn id="3" name="input_size" dataDxfId="8"/>
+    <tableColumn id="4" name="output_size" dataDxfId="7"/>
+    <tableColumn id="5" name="batch_size" dataDxfId="6"/>
+    <tableColumn id="11" name="drop_out" dataDxfId="5"/>
     <tableColumn id="6" name="GPU" dataDxfId="4"/>
     <tableColumn id="7" name="MAE" dataDxfId="3"/>
     <tableColumn id="8" name="RMSE" dataDxfId="2"/>
     <tableColumn id="9" name="MAPE" dataDxfId="1"/>
+    <tableColumn id="10" name="model_name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -563,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -579,9 +595,10 @@
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="9" width="11.5546875" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" customWidth="1"/>
+    <col min="11" max="11" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -612,8 +629,11 @@
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>10</v>
       </c>
@@ -644,8 +664,9 @@
       <c r="J2" s="3">
         <v>0.13539999999999999</v>
       </c>
+      <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>20</v>
       </c>
@@ -676,8 +697,9 @@
       <c r="J3" s="3">
         <v>0.13819999999999999</v>
       </c>
+      <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>30</v>
       </c>
@@ -708,8 +730,9 @@
       <c r="J4" s="3">
         <v>0.1343</v>
       </c>
+      <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>40</v>
       </c>
@@ -740,8 +763,9 @@
       <c r="J5" s="6">
         <v>0.1211</v>
       </c>
+      <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>10</v>
       </c>
@@ -772,8 +796,11 @@
       <c r="J6" s="3">
         <v>0.124</v>
       </c>
+      <c r="K6" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>20</v>
       </c>
@@ -798,8 +825,9 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>30</v>
       </c>
@@ -830,8 +858,11 @@
       <c r="J8" s="3">
         <v>0.1071</v>
       </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -842,6 +873,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/参数影响.xlsx
+++ b/参数影响.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>batch_size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>output_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RMSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,6 +90,13 @@
   <si>
     <t>lstm_epochs30_dropout0.3_v1.h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX151</t>
   </si>
 </sst>
 </file>
@@ -228,10 +231,7 @@
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -297,13 +297,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K9"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="epochs" dataDxfId="10"/>
-    <tableColumn id="2" name="time_steps" dataDxfId="9"/>
-    <tableColumn id="3" name="input_size" dataDxfId="8"/>
-    <tableColumn id="4" name="output_size" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J19" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J19"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="epochs" dataDxfId="9"/>
+    <tableColumn id="2" name="time_steps" dataDxfId="8"/>
+    <tableColumn id="3" name="input_size" dataDxfId="7"/>
     <tableColumn id="5" name="batch_size" dataDxfId="6"/>
     <tableColumn id="11" name="drop_out" dataDxfId="5"/>
     <tableColumn id="6" name="GPU" dataDxfId="4"/>
@@ -579,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -590,15 +589,14 @@
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="9" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1"/>
-    <col min="11" max="11" width="32.109375" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -609,31 +607,28 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>10</v>
       </c>
@@ -644,29 +639,26 @@
         <v>33</v>
       </c>
       <c r="D2" s="2">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2">
-        <v>64</v>
-      </c>
-      <c r="F2" s="2">
         <v>0.5</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2">
+        <v>27.22</v>
       </c>
       <c r="H2" s="2">
-        <v>27.22</v>
-      </c>
-      <c r="I2" s="2">
         <v>40.380000000000003</v>
       </c>
-      <c r="J2" s="3">
+      <c r="I2" s="3">
         <v>0.13539999999999999</v>
       </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>20</v>
       </c>
@@ -677,29 +669,26 @@
         <v>33</v>
       </c>
       <c r="D3" s="2">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2">
-        <v>64</v>
-      </c>
-      <c r="F3" s="2">
         <v>0.5</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>27.44</v>
       </c>
       <c r="H3" s="2">
-        <v>27.44</v>
-      </c>
-      <c r="I3" s="2">
         <v>39.130000000000003</v>
       </c>
-      <c r="J3" s="3">
+      <c r="I3" s="3">
         <v>0.13819999999999999</v>
       </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>30</v>
       </c>
@@ -710,29 +699,26 @@
         <v>33</v>
       </c>
       <c r="D4" s="2">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2">
-        <v>64</v>
-      </c>
-      <c r="F4" s="2">
         <v>0.5</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>8</v>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2">
+        <v>27.38</v>
       </c>
       <c r="H4" s="2">
-        <v>27.38</v>
-      </c>
-      <c r="I4" s="2">
         <v>37.549999999999997</v>
       </c>
-      <c r="J4" s="3">
+      <c r="I4" s="3">
         <v>0.1343</v>
       </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>40</v>
       </c>
@@ -743,29 +729,26 @@
         <v>33</v>
       </c>
       <c r="D5" s="2">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2">
-        <v>64</v>
-      </c>
-      <c r="F5" s="2">
         <v>0.5</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>9</v>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="7">
+        <v>26.26</v>
       </c>
       <c r="H5" s="7">
-        <v>26.26</v>
-      </c>
-      <c r="I5" s="7">
         <v>36.950000000000003</v>
       </c>
-      <c r="J5" s="6">
+      <c r="I5" s="6">
         <v>0.1211</v>
       </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>10</v>
       </c>
@@ -776,31 +759,28 @@
         <v>33</v>
       </c>
       <c r="D6" s="2">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2">
-        <v>64</v>
-      </c>
-      <c r="F6" s="2">
         <v>0.3</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>13</v>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
+        <v>25.86</v>
       </c>
       <c r="H6" s="2">
-        <v>25.86</v>
-      </c>
-      <c r="I6" s="2">
         <v>36.97</v>
       </c>
-      <c r="J6" s="3">
+      <c r="I6" s="3">
         <v>0.124</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>20</v>
       </c>
@@ -811,23 +791,20 @@
         <v>33</v>
       </c>
       <c r="D7" s="2">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2">
-        <v>64</v>
-      </c>
-      <c r="F7" s="2">
         <v>0.3</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>30</v>
       </c>
@@ -838,31 +815,28 @@
         <v>33</v>
       </c>
       <c r="D8" s="2">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2">
-        <v>64</v>
-      </c>
-      <c r="F8" s="2">
         <v>0.3</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>8</v>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>24.29</v>
       </c>
       <c r="H8" s="2">
-        <v>24.29</v>
-      </c>
-      <c r="I8" s="2">
         <v>35.020000000000003</v>
       </c>
-      <c r="J8" s="3">
+      <c r="I8" s="3">
         <v>0.1071</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -873,7 +847,162 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>128</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2">
+        <v>33.130000000000003</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44.63</v>
+      </c>
+      <c r="I10" s="2">
+        <v>7.55</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2">
+        <v>27.46</v>
+      </c>
+      <c r="H11" s="2">
+        <v>39.090000000000003</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6.86</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
